--- a/telegramm.xlsx
+++ b/telegramm.xlsx
@@ -557,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,7 +572,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -740,9 +740,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E2" s="16" t="n">
-        <v>31693982</v>
-      </c>
       <c r="F2" t="n">
         <v>29894228</v>
       </c>
@@ -835,9 +832,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E3" s="16" t="n">
-        <v>31694007</v>
-      </c>
       <c r="F3" t="n">
         <v>29895210</v>
       </c>
@@ -926,8 +920,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E4" s="16" t="n">
-        <v>31694041</v>
+      <c r="E4" t="n">
+        <v>31795001</v>
       </c>
       <c r="F4" t="n">
         <v>29894284</v>
@@ -1007,9 +1001,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n">
-        <v>31694046</v>
-      </c>
       <c r="F5" t="n">
         <v>29895221</v>
       </c>
@@ -1092,9 +1083,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E6" s="16" t="n">
-        <v>31694377</v>
-      </c>
       <c r="F6" t="n">
         <v>29895227</v>
       </c>
@@ -1172,9 +1160,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E7" s="16" t="n">
-        <v>31694379</v>
-      </c>
       <c r="F7" t="n">
         <v>29895231</v>
       </c>
@@ -1247,9 +1232,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
-        <v>31694387</v>
-      </c>
       <c r="F8" t="n">
         <v>29895236</v>
       </c>
@@ -1327,9 +1309,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
-        <v>31694390</v>
-      </c>
       <c r="F9" t="n">
         <v>29895242</v>
       </c>
@@ -1401,9 +1380,6 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
-        <v>31694396</v>
-      </c>
       <c r="F10" t="n">
         <v>29895248</v>
       </c>
@@ -1475,8 +1451,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E11" s="16" t="n">
-        <v>31791331</v>
+      <c r="E11" t="n">
+        <v>31812985</v>
       </c>
       <c r="F11" t="n">
         <v>29895258</v>
@@ -1550,8 +1526,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E12" s="16" t="n">
-        <v>31791745</v>
+      <c r="E12" t="n">
+        <v>31794943</v>
       </c>
       <c r="F12" t="n">
         <v>29895261</v>
@@ -1624,8 +1600,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n">
-        <v>31791540</v>
+      <c r="E13" t="n">
+        <v>31795025</v>
       </c>
       <c r="F13" t="n">
         <v>29895266</v>
@@ -1698,8 +1674,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n">
-        <v>31694408</v>
+      <c r="E14" t="n">
+        <v>31794920</v>
       </c>
       <c r="F14" t="n">
         <v>29895269</v>
@@ -1772,8 +1748,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E15" s="16" t="n">
-        <v>31792251</v>
+      <c r="E15" t="n">
+        <v>31813443</v>
       </c>
       <c r="F15" t="n">
         <v>29895275</v>
@@ -1846,8 +1822,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n">
-        <v>31694417</v>
+      <c r="E16" t="n">
+        <v>31806186</v>
       </c>
       <c r="F16" t="n">
         <v>29895277</v>
@@ -1895,8 +1871,8 @@
           <t>False</t>
         </is>
       </c>
-      <c r="E17" s="16" t="n">
-        <v>31694423</v>
+      <c r="E17" t="n">
+        <v>31794891</v>
       </c>
       <c r="F17" t="n">
         <v>29895281</v>
